--- a/medicine/Enfance/Le_Déjeuner_des_loups/Le_Déjeuner_des_loups.xlsx
+++ b/medicine/Enfance/Le_Déjeuner_des_loups/Le_Déjeuner_des_loups.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Le_D%C3%A9jeuner_des_loups</t>
+          <t>Le_Déjeuner_des_loups</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-Le Déjeuner des loups est un album de littérature jeunesse écrit et illustré par Geoffroy de Pennart, publié en 1998 aux éditions Kaléidoscope[1]. 
+Le Déjeuner des loups est un album de littérature jeunesse écrit et illustré par Geoffroy de Pennart, publié en 1998 aux éditions Kaléidoscope. 
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Le_D%C3%A9jeuner_des_loups</t>
+          <t>Le_Déjeuner_des_loups</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Personnages</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Le cochon Maurice
 Le loup Lucas
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Le_D%C3%A9jeuner_des_loups</t>
+          <t>Le_Déjeuner_des_loups</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,11 +558,13 @@
           <t>Thèmes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">L'amitié, les loups, les cochons.
-L'album met en scène « une famille de loups aristocrates » et Maurice qui « n'est pas un cochon ordinaire[2] » car il est excellent cuisinier, musicien et mécanicien. Il fait partie de récits qui permet « de se situer du côté de la bonté […] où la violence interspécifique est bannie et même définitivement exorcisée[2] ».
-L'album montre un « parcours de l'amitié » qui va du rapport de force et de la défense de soi à la sympathie et à « l'amitié contre la norme[3] ».
+L'album met en scène « une famille de loups aristocrates » et Maurice qui « n'est pas un cochon ordinaire » car il est excellent cuisinier, musicien et mécanicien. Il fait partie de récits qui permet « de se situer du côté de la bonté […] où la violence interspécifique est bannie et même définitivement exorcisée ».
+L'album montre un « parcours de l'amitié » qui va du rapport de force et de la défense de soi à la sympathie et à « l'amitié contre la norme ».
 </t>
         </is>
       </c>
